--- a/DBs_tratados/2013_coleta_tipos_residuos.xlsx
+++ b/DBs_tratados/2013_coleta_tipos_residuos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1382,92 +1382,46 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>(Vazio)</t>
+          <t>Total Geral</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>527044.36</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>486900.51</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>510833.57</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>521353.3</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>523811.98</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>496693.78</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>528713.36</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>529519.39</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>502566.72</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>546824.0600000001</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>511474.82</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>533303.61</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Total Geral</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>527044.36</v>
-      </c>
-      <c r="C22" t="n">
-        <v>486900.51</v>
-      </c>
-      <c r="D22" t="n">
-        <v>510833.57</v>
-      </c>
-      <c r="E22" t="n">
-        <v>521353.3</v>
-      </c>
-      <c r="F22" t="n">
-        <v>523811.98</v>
-      </c>
-      <c r="G22" t="n">
-        <v>496693.78</v>
-      </c>
-      <c r="H22" t="n">
-        <v>528713.36</v>
-      </c>
-      <c r="I22" t="n">
-        <v>529519.39</v>
-      </c>
-      <c r="J22" t="n">
-        <v>502566.72</v>
-      </c>
-      <c r="K22" t="n">
-        <v>546824.0600000001</v>
-      </c>
-      <c r="L22" t="n">
-        <v>511474.82</v>
-      </c>
-      <c r="M22" t="n">
-        <v>533303.61</v>
-      </c>
-      <c r="N22" t="n">
         <v>6219039.46</v>
       </c>
     </row>

--- a/DBs_tratados/2013_coleta_tipos_residuos.xlsx
+++ b/DBs_tratados/2013_coleta_tipos_residuos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1382,46 +1382,92 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>(Vazio)</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
           <t>Total Geral</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="B22" t="n">
         <v>527044.36</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C22" t="n">
         <v>486900.51</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D22" t="n">
         <v>510833.57</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E22" t="n">
         <v>521353.3</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F22" t="n">
         <v>523811.98</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G22" t="n">
         <v>496693.78</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H22" t="n">
         <v>528713.36</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I22" t="n">
         <v>529519.39</v>
       </c>
-      <c r="J21" t="n">
+      <c r="J22" t="n">
         <v>502566.72</v>
       </c>
-      <c r="K21" t="n">
+      <c r="K22" t="n">
         <v>546824.0600000001</v>
       </c>
-      <c r="L21" t="n">
+      <c r="L22" t="n">
         <v>511474.82</v>
       </c>
-      <c r="M21" t="n">
+      <c r="M22" t="n">
         <v>533303.61</v>
       </c>
-      <c r="N21" t="n">
+      <c r="N22" t="n">
         <v>6219039.46</v>
       </c>
     </row>
